--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988447.1854275669</v>
+        <v>982010.6608519792</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892731</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10182162.39663906</v>
+        <v>10181572.41724864</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>122.43608537398</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.9265808263636</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>132.3187953056037</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968124</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>152.5952327633135</v>
+        <v>273.0891598015558</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>203.0747586157667</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>86.78740487877239</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,16 +978,16 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>100.8996439579062</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968124</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>175.6983641828943</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>275.5886106635689</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>354.7617209972992</v>
       </c>
       <c r="X8" t="n">
-        <v>272.0118214538018</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>26.24962422171318</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>22.96189723698673</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>78.87181949705653</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372792</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>319.8444572927817</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993877</v>
+        <v>40.78297506860813</v>
       </c>
       <c r="D13" t="n">
-        <v>82.9984695717785</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465761</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442488</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338906</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901691</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1582,19 +1582,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>172.2362549205877</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873668</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>171.1886243209707</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.952815562145</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372792</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362804</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
-        <v>134.416447269653</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
-        <v>82.9984695717785</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465761</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442488</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338906</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456099</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,19 +1819,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>2.757141501121393</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534023</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>93.16084888546051</v>
       </c>
     </row>
     <row r="17">
@@ -1910,7 +1910,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730208</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -2968,7 +2968,7 @@
         <v>59.9324910538045</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497647</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838901</v>
+        <v>24.17382596574974</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828913</v>
+        <v>52.06849973564987</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431746</v>
+        <v>70.57601873167819</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459986</v>
+        <v>55.7231469819606</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643959</v>
+        <v>41.29686219380032</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193187</v>
+        <v>41.22330424667943</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908597</v>
+        <v>42.9727556664467</v>
       </c>
       <c r="G34" t="n">
-        <v>60.2350560614781</v>
+        <v>53.79159358883884</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805015</v>
+        <v>41.14384575541088</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922208</v>
+        <v>18.98356133658281</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.325522173678</v>
+        <v>9.882059701038727</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920531</v>
+        <v>88.00800320656604</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
@@ -3512,16 +3512,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1669.311879757299</v>
+        <v>999.032655102558</v>
       </c>
       <c r="C2" t="n">
-        <v>1276.13637826023</v>
+        <v>605.8571536054885</v>
       </c>
       <c r="D2" t="n">
-        <v>1276.13637826023</v>
+        <v>605.8571536054885</v>
       </c>
       <c r="E2" t="n">
-        <v>873.5528533767741</v>
+        <v>605.8571536054885</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067519</v>
+        <v>188.9627151354663</v>
       </c>
       <c r="G2" t="n">
-        <v>43.495659394755</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.495659394755</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.495659394755</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>43.495659394755</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>135.6402479253962</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354893</v>
+        <v>1058.738054302316</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572951</v>
+        <v>1572.340732912004</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.74991746528</v>
+        <v>2012.380333804332</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596802</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.78296973775</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.78296973775</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.78296973775</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.78296973775</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.78296973775</v>
+        <v>1784.9759692489</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.78296973775</v>
+        <v>1395.523364181957</v>
       </c>
       <c r="Y2" t="n">
-        <v>2069.806625468696</v>
+        <v>999.032655102558</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>574.3337716287374</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284341</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>158.7695259828341</v>
       </c>
       <c r="L3" t="n">
-        <v>959.915873575022</v>
+        <v>642.3356118811473</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875481</v>
+        <v>1155.938290490835</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875481</v>
+        <v>1669.540969100523</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466462</v>
+        <v>1669.540969100523</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.78296973775</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.78296973775</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467692</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222765</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>555.0870313537198</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="C4" t="n">
-        <v>555.0870313537198</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="D4" t="n">
-        <v>399.4539182562345</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="E4" t="n">
-        <v>399.4539182562345</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F4" t="n">
-        <v>242.1279834692075</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865305</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865305</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865305</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J4" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="T4" t="n">
-        <v>709.2236301045415</v>
+        <v>583.3302280987018</v>
       </c>
       <c r="U4" t="n">
-        <v>555.0870313537198</v>
+        <v>307.4825919355142</v>
       </c>
       <c r="V4" t="n">
-        <v>555.0870313537198</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="W4" t="n">
-        <v>555.0870313537198</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="X4" t="n">
-        <v>555.0870313537198</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="Y4" t="n">
-        <v>555.0870313537198</v>
+        <v>41.50324675633841</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>862.6879508334396</v>
+        <v>1537.649747726258</v>
       </c>
       <c r="C5" t="n">
-        <v>469.5124493363701</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="D5" t="n">
-        <v>469.5124493363701</v>
+        <v>1332.523728922454</v>
       </c>
       <c r="E5" t="n">
-        <v>469.5124493363701</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067519</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>43.495659394755</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H5" t="n">
-        <v>43.495659394755</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M5" t="n">
-        <v>1040.448080049574</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N5" t="n">
-        <v>1568.259363687036</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606228</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.78296973775</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S5" t="n">
-        <v>2049.126010691179</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="T5" t="n">
-        <v>2049.126010691179</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="U5" t="n">
-        <v>2049.126010691179</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="V5" t="n">
-        <v>2049.126010691179</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="W5" t="n">
-        <v>2049.126010691179</v>
+        <v>1537.649747726258</v>
       </c>
       <c r="X5" t="n">
-        <v>1659.673405624235</v>
+        <v>1537.649747726258</v>
       </c>
       <c r="Y5" t="n">
-        <v>1263.182696544837</v>
+        <v>1537.649747726258</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813152</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414074</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>303.6197232606941</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284341</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I6" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K6" t="n">
-        <v>43.495659394755</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="L6" t="n">
-        <v>176.1237484101853</v>
+        <v>361.2423928185648</v>
       </c>
       <c r="M6" t="n">
-        <v>714.3825334202784</v>
+        <v>874.8450714282526</v>
       </c>
       <c r="N6" t="n">
-        <v>1252.641318430371</v>
+        <v>921.5731989359444</v>
       </c>
       <c r="O6" t="n">
-        <v>1769.161601021353</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.78296973775</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.78296973775</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.78296973775</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467692</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222765</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.87392956865305</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="C7" t="n">
-        <v>73.87392956865305</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="D7" t="n">
-        <v>73.87392956865305</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="E7" t="n">
-        <v>73.87392956865305</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="F7" t="n">
-        <v>73.87392956865305</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865305</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865305</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865305</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J7" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>740.13418548044</v>
       </c>
       <c r="T7" t="n">
-        <v>618.2256087514338</v>
+        <v>504.4151336486741</v>
       </c>
       <c r="U7" t="n">
-        <v>339.8532747478288</v>
+        <v>218.976341890575</v>
       </c>
       <c r="V7" t="n">
-        <v>73.87392956865305</v>
+        <v>218.976341890575</v>
       </c>
       <c r="W7" t="n">
-        <v>73.87392956865305</v>
+        <v>218.976341890575</v>
       </c>
       <c r="X7" t="n">
-        <v>73.87392956865305</v>
+        <v>218.976341890575</v>
       </c>
       <c r="Y7" t="n">
-        <v>73.87392956865305</v>
+        <v>218.976341890575</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1339.790331424607</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="C8" t="n">
-        <v>1339.790331424607</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="D8" t="n">
-        <v>1339.790331424607</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>611.6668769506939</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4805,22 +4805,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>173.6308686433316</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>1985.548782066221</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W8" t="n">
-        <v>1614.549747034508</v>
+        <v>1403.703006901093</v>
       </c>
       <c r="X8" t="n">
-        <v>1339.790331424607</v>
+        <v>1014.250401834149</v>
       </c>
       <c r="Y8" t="n">
-        <v>1339.790331424607</v>
+        <v>1014.250401834149</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1116.377061006459</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.69124027544166</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>922.2452207019717</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="V10" t="n">
-        <v>77.69124027544166</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="W10" t="n">
-        <v>77.69124027544166</v>
+        <v>636.8064289438726</v>
       </c>
       <c r="X10" t="n">
-        <v>77.69124027544166</v>
+        <v>402.7261067268557</v>
       </c>
       <c r="Y10" t="n">
-        <v>77.69124027544166</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1799.246369073022</v>
+        <v>1435.837779556535</v>
       </c>
       <c r="C11" t="n">
-        <v>1477.867142722146</v>
+        <v>1114.45855320566</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>800.8136995685214</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>470.0264498312598</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2770.295603492179</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2770.295603492179</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2770.295603492179</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="X11" t="n">
-        <v>2452.63927357143</v>
+        <v>2087.611459508387</v>
       </c>
       <c r="Y11" t="n">
-        <v>2127.944839638225</v>
+        <v>1764.536250121738</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2295.043159414291</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>497.339280970973</v>
+        <v>103.3140520158406</v>
       </c>
       <c r="C13" t="n">
-        <v>398.9304381831561</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>315.0936002318646</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>231.331063237261</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027739</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
         <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245439</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V13" t="n">
-        <v>762.0668105532434</v>
+        <v>741.8597555915622</v>
       </c>
       <c r="W13" t="n">
-        <v>762.0668105532434</v>
+        <v>530.3256286689337</v>
       </c>
       <c r="X13" t="n">
-        <v>762.0668105532434</v>
+        <v>368.0415815981107</v>
       </c>
       <c r="Y13" t="n">
-        <v>610.7510245160805</v>
+        <v>216.725795560948</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1450.148693143102</v>
+        <v>1463.714265689663</v>
       </c>
       <c r="C14" t="n">
-        <v>1128.769466792227</v>
+        <v>1142.335039338787</v>
       </c>
       <c r="D14" t="n">
-        <v>815.1246131550888</v>
+        <v>828.6901857016492</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550888</v>
+        <v>655.772383357234</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312604</v>
+        <v>655.772383357234</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654574</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654574</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2875.464916131755</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2691.508461712548</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="V14" t="n">
-        <v>2421.19792756226</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2421.19792756226</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>2103.541597641511</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>1778.847163708306</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>2262.088962721623</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>460.2285883998844</v>
+        <v>160.5279704919324</v>
       </c>
       <c r="C16" t="n">
-        <v>460.2285883998844</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>376.3917504485929</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>292.6292134539892</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>207.099553813156</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>207.099553813156</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581888</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027732</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118219</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138157</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.71283314325</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457678</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457731</v>
+        <v>936.0428256245445</v>
       </c>
       <c r="V16" t="n">
-        <v>985.3625484304988</v>
+        <v>741.8597555915626</v>
       </c>
       <c r="W16" t="n">
-        <v>773.8284215078703</v>
+        <v>530.325628668934</v>
       </c>
       <c r="X16" t="n">
-        <v>611.5443744370473</v>
+        <v>368.041581598111</v>
       </c>
       <c r="Y16" t="n">
-        <v>460.2285883998844</v>
+        <v>273.9397140370398</v>
       </c>
     </row>
     <row r="17">
@@ -5492,31 +5492,31 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803434</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5671,22 +5671,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
         <v>1094.779966106229</v>
@@ -5732,16 +5732,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924224</v>
@@ -5771,7 +5771,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
         <v>3105.956385205777</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>490.2252314250076</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5908,22 +5908,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222413</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511123</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5978,7 +5978,7 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924224</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>346.0196676966397</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>973.7913173233209</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6145,10 +6145,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
         <v>313.6614512960409</v>
@@ -6209,13 +6209,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6227,25 +6227,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958356</v>
+        <v>755.8323718938489</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614364</v>
+        <v>1249.152663612378</v>
       </c>
       <c r="M26" t="n">
-        <v>1832.390418388518</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N26" t="n">
-        <v>2453.253063755554</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2949.107171645896</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3390.346025506991</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6303,25 +6303,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>556.9309448458635</v>
+        <v>670.0459270655908</v>
       </c>
       <c r="M27" t="n">
-        <v>1184.702594472545</v>
+        <v>1297.817576692272</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>1953.595547902831</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
         <v>1584.222786214271</v>
@@ -6446,13 +6446,13 @@
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485127</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>2893.292664647883</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6549,16 +6549,16 @@
         <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1504.441740534771</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
-        <v>2160.21971174533</v>
+        <v>1532.448062118649</v>
       </c>
       <c r="O30" t="n">
-        <v>2391.700393923186</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985357</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517132</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.373229741416</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878072</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879686</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746022</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232845</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904117</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286454</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988169</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026486</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057095</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835491</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041216</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.77306162265</v>
+        <v>1287.81179740713</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513242</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2436.268520877774</v>
+        <v>2404.684126952454</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770103</v>
+        <v>2844.723727844783</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901624</v>
+        <v>3192.911219976304</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042573</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038083</v>
+        <v>3377.756780117253</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.162335939829</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076166</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="M33" t="n">
-        <v>1017.058343929669</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965136</v>
+        <v>365.6713676929709</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918673</v>
+        <v>309.3853606404855</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237465</v>
+        <v>267.6713584245256</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123135</v>
+        <v>226.0316571652534</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546509</v>
+        <v>182.6248332597517</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834609</v>
+        <v>128.2898902407225</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431931</v>
+        <v>86.73045008374184</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076166</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>67.55513560234506</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074062</v>
+        <v>225.4160927170953</v>
       </c>
       <c r="L34" t="n">
-        <v>496.282672081206</v>
+        <v>389.543732590895</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465402</v>
+        <v>575.835310929159</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041675</v>
+        <v>870.6770655353512</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145876</v>
+        <v>1145.033953152042</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649524</v>
+        <v>1264.910118928621</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746645</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518099</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250173</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439553</v>
+        <v>835.7257283273668</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000951</v>
+        <v>666.3144371400697</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124426</v>
+        <v>546.1532258045781</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584504</v>
+        <v>436.9602755027469</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6944,10 +6944,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,10 +6956,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -6968,16 +6968,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443166</v>
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1740.468202408463</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222412</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.661451296041</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1614.059487414178</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975459</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099321</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803437</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7181,10 +7181,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,7 +7193,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
         <v>3105.956385205777</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,22 +7251,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128481</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511122</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445264</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862344</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162813</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532864</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7445,16 +7445,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1319.055322752795</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1974.833293963354</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7576,10 +7576,10 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
         <v>969.3241577214669</v>
@@ -7631,13 +7631,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
         <v>68.77950792924223</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1493.196009291336</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7813,10 +7813,10 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
         <v>969.3241577214669</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>246.3235116806344</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321648</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920142</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>213.717612910206</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>93.79016463309929</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>151.3369738679574</v>
+        <v>611.1777065035419</v>
       </c>
       <c r="N3" t="n">
-        <v>85.37211285416666</v>
+        <v>604.1626973083967</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920142</v>
       </c>
       <c r="O5" t="n">
-        <v>410.5094070394426</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>300.2068661913374</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,25 +8295,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>224.028113539171</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837494</v>
+        <v>611.1777065035419</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886042</v>
+        <v>132.572241649815</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.478143343119</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,7 +8453,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>270.6522400901343</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>415.8062469585533</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,25 +8766,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>173.3576105420024</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9015,13 +9015,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>461.5665676450056</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9240,10 +9240,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,16 +9252,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>373.1055958271594</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>407.7697853345098</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,16 +9714,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>376.828569071589</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9732,7 +9732,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>89.59693533333335</v>
@@ -9963,16 +9963,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>373.1055958271592</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>298.485290672186</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10197,19 +10197,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>326.5064297756118</v>
+        <v>314.1682372053019</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10437,7 +10437,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>538.5873532373482</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10592,7 +10592,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
-        <v>701.2411122488197</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N35" t="n">
         <v>682.2612020826953</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
@@ -10674,13 +10674,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>658.1108392979579</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10829,7 +10829,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488197</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -10899,25 +10899,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11145,19 +11145,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>550.6002160777358</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11385,16 +11385,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O45" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>231.6365856037105</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362804</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.603032301091212</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>56.6417792913306</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681701</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456099</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>20.00498441206443</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534023</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>156.2907529189182</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>15.77083675179259</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993877</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681701</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901691</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>189.4840978315307</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>56.64177929133062</v>
       </c>
     </row>
     <row r="17">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>894497.3742223762</v>
+        <v>894196.6004154959</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>894497.3742223762</v>
+        <v>894196.6004154959</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>793763.5077717191</v>
+        <v>793763.5077717192</v>
       </c>
     </row>
     <row r="7">
@@ -26314,46 +26314,46 @@
         <v>378697.5739960494</v>
       </c>
       <c r="C2" t="n">
-        <v>378697.5739960495</v>
+        <v>378697.5739960494</v>
       </c>
       <c r="D2" t="n">
         <v>378697.5739960494</v>
       </c>
       <c r="E2" t="n">
-        <v>334653.9491912411</v>
+        <v>334653.9491912413</v>
       </c>
       <c r="F2" t="n">
         <v>334653.9491912412</v>
       </c>
       <c r="G2" t="n">
-        <v>378697.5739960493</v>
+        <v>378697.5739960492</v>
       </c>
       <c r="H2" t="n">
-        <v>378697.5739960492</v>
+        <v>378697.5739960491</v>
       </c>
       <c r="I2" t="n">
-        <v>378697.5739960492</v>
+        <v>378697.5739960491</v>
       </c>
       <c r="J2" t="n">
+        <v>378697.5739960494</v>
+      </c>
+      <c r="K2" t="n">
         <v>378697.5739960495</v>
       </c>
-      <c r="K2" t="n">
-        <v>378697.5739960494</v>
-      </c>
       <c r="L2" t="n">
-        <v>378697.5739960497</v>
+        <v>378697.5739960488</v>
       </c>
       <c r="M2" t="n">
         <v>378697.5739960492</v>
       </c>
       <c r="N2" t="n">
-        <v>378697.5739960492</v>
+        <v>378697.5739960491</v>
       </c>
       <c r="O2" t="n">
         <v>378697.5739960491</v>
       </c>
       <c r="P2" t="n">
-        <v>378697.5739960491</v>
+        <v>378697.5739960492</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106218</v>
+        <v>22558.42953401365</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668199</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728547</v>
+        <v>62456.24177539685</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962302</v>
+        <v>43252.52447081116</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892385</v>
+        <v>184487.2052585817</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892385</v>
+        <v>184487.2052585817</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
       </c>
       <c r="E4" t="n">
-        <v>86988.78851589419</v>
+        <v>86988.78851589424</v>
       </c>
       <c r="F4" t="n">
-        <v>86988.78851589421</v>
+        <v>86988.78851589425</v>
       </c>
       <c r="G4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="H4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="I4" t="n">
         <v>134747.7050074764</v>
@@ -26445,7 +26445,7 @@
         <v>135498.1974718596</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,13 +26497,13 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
+        <v>58169.76931551966</v>
+      </c>
+      <c r="N5" t="n">
         <v>58169.76931551967</v>
-      </c>
-      <c r="N5" t="n">
-        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551967</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-48267.48022505885</v>
+        <v>-44818.35583140448</v>
       </c>
       <c r="C6" t="n">
-        <v>133937.4680667973</v>
+        <v>129040.3012026504</v>
       </c>
       <c r="D6" t="n">
-        <v>128497.9260909729</v>
+        <v>120761.6368675811</v>
       </c>
       <c r="E6" t="n">
-        <v>82356.57950146188</v>
+        <v>82146.84795477243</v>
       </c>
       <c r="F6" t="n">
-        <v>194479.1409755065</v>
+        <v>194269.4094288168</v>
       </c>
       <c r="G6" t="n">
         <v>138354.7741363712</v>
       </c>
       <c r="H6" t="n">
-        <v>185780.0996730531</v>
+        <v>185780.099673053</v>
       </c>
       <c r="I6" t="n">
-        <v>185780.0996730531</v>
+        <v>185780.099673053</v>
       </c>
       <c r="J6" t="n">
-        <v>-27261.81792423217</v>
+        <v>-20745.53276965884</v>
       </c>
       <c r="K6" t="n">
-        <v>179540.3312702703</v>
+        <v>179540.3312702705</v>
       </c>
       <c r="L6" t="n">
-        <v>124357.7423356495</v>
+        <v>120308.9051251763</v>
       </c>
       <c r="M6" t="n">
-        <v>143579.2702134301</v>
+        <v>142527.5752022419</v>
       </c>
       <c r="N6" t="n">
-        <v>185780.0996730533</v>
+        <v>185780.099673053</v>
       </c>
       <c r="O6" t="n">
         <v>158012.4056302818</v>
       </c>
       <c r="P6" t="n">
-        <v>185780.099673053</v>
+        <v>185780.0996730531</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,13 +26713,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.79058445423</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26817,10 +26817,10 @@
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095208</v>
+        <v>844.4391950293133</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014442</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660683</v>
+        <v>78.07030221924606</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551357</v>
+        <v>17.58004954287428</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346403</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.79058445423</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485754</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773715</v>
+        <v>659.362224997164</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407248</v>
+        <v>117.1268713042798</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.79058445423</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485754</v>
+        <v>72.62154181506503</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27436,16 +27436,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>216.2496558295368</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>288.5992211622413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>17.95957579094798</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938626819</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>129.9891710772046</v>
+        <v>9.495244038962312</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>186.168987866332</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>78.06101462958755</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>221.2655964161775</v>
@@ -27676,13 +27676,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27698,16 +27698,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>27.88843374682827</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626819</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>7.657574321493996</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6.995793176949178</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27859,16 +27859,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>12.52732368409619</v>
       </c>
       <c r="X8" t="n">
-        <v>113.546257562472</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>96.41235525203562</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>240.3576544903973</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.0783123947319</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="17">
@@ -28743,17 +28743,17 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K19" t="n">
-        <v>35.71049010668817</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28840,7 +28840,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -28980,14 +28980,14 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>5.636002634529177</v>
+      </c>
+      <c r="L22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
@@ -28998,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>35.71049010668801</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29217,13 +29217,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.7104901066881</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29299,7 +29299,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K26" t="n">
-        <v>30.27223765901221</v>
+        <v>86.65052755599532</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -29311,16 +29311,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431646</v>
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
@@ -29545,16 +29545,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>30.2722376590126</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
+        <v>30.27223765901266</v>
+      </c>
+      <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,43 +29746,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M32" t="n">
-        <v>86.27291196566796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000708</v>
+        <v>43.49509683159795</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000708</v>
+        <v>76.79385455031144</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861254353</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30174,10 +30174,10 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
+        <v>5.636002634529518</v>
+      </c>
+      <c r="N37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30378,31 +30378,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30411,10 +30411,10 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
-        <v>28.01250026485357</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155843</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30648,13 +30648,13 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30885,13 +30885,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>93.07534195014267</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344375</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>63.41616566928082</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>4.193229299765948</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>58.94985181864545</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.79058445423</v>
       </c>
       <c r="O5" t="n">
-        <v>260.9455696153462</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>155.7081677729452</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>133.9677666822528</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344375</v>
+        <v>518.79058445423</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344375</v>
+        <v>47.20012879564833</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.79058445423</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>127.5938369108969</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>330.4341341043866</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>86.27424572268772</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35735,13 +35735,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>374.483202825691</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257283</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475238</v>
+        <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318107</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488438</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O17" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P17" t="n">
         <v>351.7045375065877</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,16 +35972,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>287.7334829729927</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>118.3721477934981</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36057,7 +36057,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724872</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065884</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>318.1728500011765</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133915</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36294,7 +36294,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>156.7975262446462</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>286.7682222146708</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36452,7 +36452,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.63600263452903</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36595,7 +36595,7 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K26" t="n">
-        <v>392.8806780907918</v>
+        <v>449.258967987775</v>
       </c>
       <c r="L26" t="n">
         <v>498.303324968211</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>287.7334829729925</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>205.7977317832971</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36841,16 +36841,16 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>563.4149484039237</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36917,19 +36917,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>233.8188708867229</v>
+        <v>221.480678316413</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318505</v>
+        <v>475.3883602044897</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.083244740921</v>
       </c>
       <c r="M32" t="n">
-        <v>637.7889726167595</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.479168044982</v>
+        <v>576.6378075765091</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273753</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37157,7 +37157,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>453.2152403831815</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791174</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>159.4555122371214</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528628</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>203.7545029875023</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097889</v>
       </c>
       <c r="P34" t="n">
-        <v>227.423493438029</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>116.2366837828626</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510925</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,13 +37394,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>572.7387264437913</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529087</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37470,10 +37470,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>193.8093140873215</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510925</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37707,10 +37707,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
-        <v>213.0525346398124</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835522</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37865,19 +37865,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>458.2130940284239</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,13 +37944,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38105,16 +38105,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O45" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
